--- a/_site/posts/Diferenças-em-diferenças/exemplo_twfe.xlsx
+++ b/_site/posts/Diferenças-em-diferenças/exemplo_twfe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6f01953baf6c2ab2/Documentos/R/R_projects/economia_no_quarto/APP/posts/Diferenças-em-diferenças/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{4F7EDA17-513F-4282-BA82-DF0230EADC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76CCF0BB-CFC1-4C2E-B61D-0A282EDB43C8}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:1_{4F7EDA17-513F-4282-BA82-DF0230EADC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EEC4DF6A-A289-4F33-87B7-3DACF5125767}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TWFE" sheetId="12" r:id="rId1"/>
@@ -1615,7 +1615,7 @@
   <dimension ref="A1:Y41"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D6" sqref="D6:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3823,8 +3823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4008,7 +4008,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -4311,8 +4311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
